--- a/data/sem3.xlsx
+++ b/data/sem3.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">CEC301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEC302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEC305</t>
+    <t xml:space="preserve">EM-III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBMS</t>
   </si>
   <si>
     <t xml:space="preserve">CEL301</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">CEMP301</t>
   </si>
   <si>
-    <t xml:space="preserve">CEC303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEC304</t>
+    <t xml:space="preserve">DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COA</t>
   </si>
   <si>
     <t xml:space="preserve">S.G.P.A</t>
@@ -2019,7 +2019,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2043,7 +2043,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 3" xfId="20"/>
+    <cellStyle name="Accent 3 1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
